--- a/Previous.xlsx
+++ b/Previous.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>671</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/Previous.xlsx
+++ b/Previous.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>revenue</t>
   </si>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +415,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Previous.xlsx
+++ b/Previous.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>145</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
